--- a/websitetesttoeic.frontend/public/LuanVan_Demo/FullTest.xlsx
+++ b/websitetesttoeic.frontend/public/LuanVan_Demo/FullTest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Ty\websitetesttoeic.frontend\public\LuanVan_Demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA167B34-74D2-41CA-8C80-27CD8D99559C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F5FC7B7-1FEE-4208-9352-DBB81A784A13}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7290" yWindow="4440" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Trang tính1" sheetId="1" r:id="rId1"/>
@@ -22,21 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="18">
   <si>
-    <t>Image</t>
-  </si>
-  <si>
-    <t>AudioFile</t>
-  </si>
-  <si>
-    <t>ContentQuestion</t>
-  </si>
-  <si>
-    <t>ContentScript</t>
-  </si>
-  <si>
-    <t>NumPart</t>
-  </si>
-  <si>
     <t>ContentAnswer</t>
   </si>
   <si>
@@ -74,6 +59,21 @@
   </si>
   <si>
     <t>Full Test</t>
+  </si>
+  <si>
+    <t>numPart</t>
+  </si>
+  <si>
+    <t>contentQuestion</t>
+  </si>
+  <si>
+    <t>contentScript</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>audioFile</t>
   </si>
 </sst>
 </file>
@@ -388,7 +388,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -402,39 +402,39 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
@@ -442,25 +442,25 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
@@ -472,19 +472,19 @@
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -496,19 +496,19 @@
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -520,19 +520,19 @@
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -544,19 +544,19 @@
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -568,19 +568,19 @@
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
